--- a/tests/red_sing_id.xlsx
+++ b/tests/red_sing_id.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="918" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="507" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Substations" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,31 +25,47 @@
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Lines!$A$1:$P$204</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Loads!$A$1:$C$258</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Substations!$A$1:$D$65</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Terminals!$A$1:$D$317</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Terminals!$A$1:$D$318</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Terminals draft'!$A$1:$B$1654</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Substations!$A$1:$D$65</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Substations!$A$1:$D$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Terminals!$A$1:$D$317</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Terminals!$A$1:$D$317</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Substations!$A$1:$D$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Substations!$A$1:$D$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Terminals!$A$1:$D$318</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Terminals!$A$1:$D$318</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Terminals!$A$1:$D$318</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Terminals!$A$1:$D$318</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Lines!$A$1:$P$204</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Lines!$A$1:$P$204</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Lines!$A$1:$P$204</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Lines!$A$1:$P$204</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Generators!$A$1:$B$74</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Generators!$A$1:$B$74</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Generators!$A$1:$B$74</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Generators!$A$1:$B$74</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Loads!$A$1:$C$258</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Loads!$A$1:$C$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Loads!$A$1:$C$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Loads!$A$1:$C$258</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Terminals draft'!$A$1:$B$1654</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Terminals draft'!$A$1:$B$1654</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Terminals draft'!$A$1:$B$1654</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Terminals draft'!$A$1:$B$1654</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Hoja 8'!$A$1:$L$140</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Hoja 8'!$A$1:$L$140</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Hoja 8'!$A$1:$L$140</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Hoja 8'!$A$1:$L$140</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Enipedia_Data_Chile!$A$1:$P$275</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Enipedia_Data_Chile!$A$1:$P$275</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Enipedia_Data_Chile!$A$1:$P$275</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Enipedia_Data_Chile!$A$1:$P$275</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8587" uniqueCount="2922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8589" uniqueCount="2922">
   <si>
     <t>way_id_osm</t>
   </si>
@@ -264,9 +280,6 @@
     <t>node_id_osm</t>
   </si>
   <si>
-    <t>same as </t>
-  </si>
-  <si>
     <t>Aguas Blancas 0.4 kV</t>
   </si>
   <si>
@@ -606,6 +619,9 @@
     <t>Cóndores Palafitos 13.8</t>
   </si>
   <si>
+    <t>Crucero 220 kV B1</t>
+  </si>
+  <si>
     <t>CTM1 4.16</t>
   </si>
   <si>
@@ -1221,6 +1237,9 @@
     <t>Zaldivar Agua Fresca 66 - 1</t>
   </si>
   <si>
+    <t>Salta 345</t>
+  </si>
+  <si>
     <t>digsilent name</t>
   </si>
   <si>
@@ -2071,9 +2090,6 @@
   </si>
   <si>
     <t>345 kV Reactor Salta-Salta</t>
-  </si>
-  <si>
-    <t>Salta 345</t>
   </si>
   <si>
     <t>- Salta</t>
@@ -8821,12 +8837,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -8880,6 +8897,14 @@
       <sz val="15"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -8945,7 +8970,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8974,11 +8999,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8990,11 +9023,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9002,7 +9039,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9117,8 +9154,8 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9557,10 +9594,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E319"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A269" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A285" activeCellId="0" sqref="A285"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A294" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B321" activeCellId="0" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9580,27 +9617,27 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>120791309</v>
@@ -9608,12 +9645,12 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>136149844</v>
@@ -9621,22 +9658,22 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>136149844</v>
@@ -9644,182 +9681,182 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" s="6" t="n">
         <v>120712016</v>
@@ -9827,92 +9864,92 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>30641628</v>
@@ -9923,7 +9960,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>30641628</v>
@@ -9934,7 +9971,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>30641628</v>
@@ -9945,7 +9982,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>30641628</v>
@@ -9956,7 +9993,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>30641628</v>
@@ -9967,7 +10004,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>30641628</v>
@@ -9978,7 +10015,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>30641628</v>
@@ -9989,7 +10026,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>30641628</v>
@@ -10000,47 +10037,47 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>318890441</v>
@@ -10048,72 +10085,72 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B95" s="6" t="n">
         <v>318890441</v>
@@ -10121,37 +10158,37 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>182747576</v>
@@ -10159,22 +10196,22 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>110804340</v>
@@ -10182,973 +10219,970 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="2" t="n">
+        <v>111486352</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>170022524</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>170022524</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B125" s="6" t="n">
-        <v>170017864</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="B126" s="6" t="n">
+        <v>170017864</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>170022524</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>170022524</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B147" s="4" t="n">
-        <v>120471866</v>
+        <v>216</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="B148" s="4" t="n">
+        <v>120471866</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B150" s="4" t="n">
-        <v>121455793</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B151" s="4" t="n">
-        <v>30641904</v>
+        <v>121455793</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" s="4" t="n">
-        <v>121445157</v>
+        <v>30641904</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="B153" s="4" t="n">
+        <v>121445157</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B157" s="6" t="n">
-        <v>120791316</v>
+        <v>226</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B158" s="6" t="n">
-        <v>120791326</v>
+        <v>120791316</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="B159" s="6" t="n">
+        <v>120791326</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B163" s="6" t="n">
-        <v>120946300</v>
+        <v>232</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="B164" s="6" t="n">
+        <v>120946300</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>170022526</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>170022526</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B173" s="1" t="n">
-        <v>170066365</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>170066365</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B189" s="1" t="n">
-        <v>321520065</v>
+        <v>258</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>321520065</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B195" s="1" t="n">
-        <v>170073895</v>
+        <v>264</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>170073895</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B197" s="2" t="n">
-        <v>182735456</v>
+        <v>266</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>182735456</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B211" s="6" t="n">
-        <v>120960385</v>
+        <v>281</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="B212" s="6" t="n">
+        <v>120960385</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B215" s="1" t="n">
-        <v>318923210</v>
+        <v>285</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>318923210</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B219" s="4" t="n">
-        <v>321480719</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="B220" s="4" t="n">
+        <v>321480719</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B231" s="2" t="n">
-        <v>88147668</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>88147668</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B243" s="1" t="n">
-        <v>157553674</v>
+        <v>313</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+      <c r="B244" s="1" t="n">
+        <v>157553674</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B259" s="6"/>
-      <c r="C259" s="6" t="n">
-        <v>1352774154</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="B260" s="6"/>
+      <c r="C260" s="6" t="n">
+        <v>1352774154</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B261" s="2" t="n">
-        <v>247820691</v>
+        <v>332</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>247820691</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B266" s="2" t="n">
-        <v>170023614</v>
+        <v>337</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>170023614</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B273" s="1" t="n">
-        <v>121431080</v>
+        <v>344</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+      <c r="B274" s="1" t="n">
+        <v>121431080</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B279" s="2" t="n">
-        <v>110801625</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B280" s="2" t="n">
         <v>110801625</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B281" s="2" t="n">
         <v>110801625</v>
@@ -11157,195 +11191,214 @@
         <v>61</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>110801625</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B312" s="1" t="n">
-        <v>121436161</v>
+        <v>383</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B313" s="1" t="n">
-        <v>321511794</v>
+        <v>121436161</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C314" s="1"/>
+        <v>385</v>
+      </c>
+      <c r="B314" s="1" t="n">
+        <v>321511794</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>387</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C315" s="1"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="1" t="s">
         <v>389</v>
       </c>
     </row>
+    <row r="319" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B319" s="8" t="n">
+        <v>247820683</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D317"/>
+  <autoFilter ref="A1:D318"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11362,10 +11415,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V204"/>
+  <dimension ref="A1:V205"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F205" activeCellId="0" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11375,54 +11428,56 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7091836734694"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
@@ -11433,13 +11488,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>0</v>
@@ -11447,13 +11502,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O3" s="1" t="n">
         <v>0</v>
@@ -11461,13 +11516,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O4" s="1" t="n">
         <v>0</v>
@@ -11475,13 +11530,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>0</v>
@@ -11489,13 +11544,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O6" s="1" t="n">
         <v>0</v>
@@ -11503,13 +11558,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O7" s="1" t="n">
         <v>0</v>
@@ -11517,13 +11572,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>0</v>
@@ -11531,13 +11586,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>0</v>
@@ -11545,13 +11600,13 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O10" s="1" t="n">
         <v>0</v>
@@ -11559,13 +11614,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O11" s="1" t="n">
         <v>0</v>
@@ -11573,13 +11628,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O12" s="1" t="n">
         <v>0</v>
@@ -11587,13 +11642,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O13" s="1" t="n">
         <v>0</v>
@@ -11601,13 +11656,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O14" s="1" t="n">
         <v>0</v>
@@ -11615,13 +11670,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>0</v>
@@ -11629,13 +11684,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>0</v>
@@ -11643,13 +11698,13 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>0</v>
@@ -11657,13 +11712,13 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O18" s="1" t="n">
         <v>0</v>
@@ -11671,13 +11726,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>0</v>
@@ -11685,13 +11740,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>0</v>
@@ -11699,7 +11754,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>364</v>
@@ -11713,7 +11768,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>364</v>
@@ -11727,13 +11782,13 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>348</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>0</v>
@@ -11741,13 +11796,13 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>348</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O24" s="1" t="n">
         <v>0</v>
@@ -11755,13 +11810,13 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O25" s="1" t="n">
         <v>0</v>
@@ -11769,10 +11824,10 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>330</v>
@@ -11783,13 +11838,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>0</v>
@@ -11797,13 +11852,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>364</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O28" s="1" t="n">
         <v>0</v>
@@ -11811,13 +11866,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>364</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O29" s="1" t="n">
         <v>0</v>
@@ -11825,10 +11880,10 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>244</v>
@@ -11839,10 +11894,10 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>280</v>
@@ -11853,16 +11908,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O32" s="1" t="n">
         <v>0</v>
@@ -11870,13 +11925,13 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>0</v>
@@ -11884,13 +11939,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O34" s="1" t="n">
         <v>0</v>
@@ -11898,13 +11953,13 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O35" s="1" t="n">
         <v>0</v>
@@ -11912,13 +11967,13 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O36" s="1" t="n">
         <v>0</v>
@@ -11926,13 +11981,13 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O37" s="1" t="n">
         <v>0</v>
@@ -11940,7 +11995,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>225</v>
@@ -11954,7 +12009,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>225</v>
@@ -11968,13 +12023,13 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O40" s="1" t="n">
         <v>0</v>
@@ -11982,7 +12037,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>225</v>
@@ -11996,7 +12051,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>190</v>
@@ -12010,7 +12065,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>280</v>
@@ -12024,13 +12079,13 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O44" s="1" t="n">
         <v>0</v>
@@ -12038,13 +12093,13 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O45" s="1" t="n">
         <v>0</v>
@@ -12052,16 +12107,16 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O46" s="1" t="n">
         <v>0</v>
@@ -12069,13 +12124,13 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>317</v>
@@ -12089,10 +12144,10 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>235</v>
@@ -12103,13 +12158,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O49" s="1" t="n">
         <v>0</v>
@@ -12117,13 +12172,13 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O50" s="1" t="n">
         <v>0</v>
@@ -12131,13 +12186,13 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O51" s="1" t="n">
         <v>0</v>
@@ -12145,13 +12200,13 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O52" s="1" t="n">
         <v>0</v>
@@ -12159,10 +12214,10 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>246</v>
@@ -12173,10 +12228,10 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>188</v>
@@ -12187,13 +12242,13 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O55" s="1" t="n">
         <v>0</v>
@@ -12201,16 +12256,16 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O56" s="1" t="n">
         <v>0</v>
@@ -12218,13 +12273,13 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O57" s="1" t="n">
         <v>0</v>
@@ -12232,16 +12287,16 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O58" s="1" t="n">
         <v>0</v>
@@ -12249,13 +12304,13 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O59" s="1" t="n">
         <v>0</v>
@@ -12263,7 +12318,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>265</v>
@@ -12277,13 +12332,13 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O61" s="1" t="n">
         <v>0</v>
@@ -12291,13 +12346,13 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O62" s="1" t="n">
         <v>0</v>
@@ -12305,13 +12360,13 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O63" s="1" t="n">
         <v>0</v>
@@ -12319,13 +12374,13 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O64" s="1" t="n">
         <v>0</v>
@@ -12333,10 +12388,10 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>63</v>
@@ -12350,13 +12405,13 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O66" s="1" t="n">
         <v>0</v>
@@ -12364,16 +12419,16 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O67" s="1" t="n">
         <v>0</v>
@@ -12381,16 +12436,16 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O68" s="1" t="n">
         <v>0</v>
@@ -12399,13 +12454,13 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O69" s="1" t="n">
         <v>0</v>
@@ -12414,13 +12469,13 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="O70" s="1" t="n">
         <v>0</v>
@@ -12428,7 +12483,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>299</v>
@@ -12445,10 +12500,10 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>251</v>
@@ -12459,13 +12514,13 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O73" s="1" t="n">
         <v>0</v>
@@ -12473,16 +12528,16 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O74" s="1" t="n">
         <v>0</v>
@@ -12490,16 +12545,16 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>247818314</v>
@@ -12510,16 +12565,16 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>247818314</v>
@@ -12530,13 +12585,13 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>258099611</v>
@@ -12547,18 +12602,18 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F78" s="7" t="n">
+      <c r="F78" s="9" t="n">
         <v>168852855</v>
       </c>
       <c r="O78" s="1" t="n">
@@ -12567,16 +12622,16 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F79" s="1" t="n">
         <v>168852855</v>
@@ -12593,13 +12648,13 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>327</v>
@@ -12610,19 +12665,19 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F81" s="1" t="n">
         <v>120410691</v>
@@ -12651,19 +12706,19 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F82" s="1" t="n">
         <v>120410691</v>
@@ -12692,19 +12747,19 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F83" s="1" t="n">
         <v>120956964</v>
@@ -12718,19 +12773,19 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F84" s="1" t="n">
         <v>120956960</v>
@@ -12744,13 +12799,13 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>227</v>
@@ -12761,10 +12816,10 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>274</v>
@@ -12778,7 +12833,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>62</v>
@@ -12787,7 +12842,7 @@
         <v>66</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F87" s="2" t="n">
         <v>169998375</v>
@@ -12806,7 +12861,7 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>62</v>
@@ -12815,7 +12870,7 @@
         <v>67</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F88" s="2" t="n">
         <v>169998376</v>
@@ -12834,16 +12889,16 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F89" s="6" t="n">
         <v>30641621</v>
@@ -12854,13 +12909,13 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>17</v>
@@ -12878,19 +12933,19 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F91" s="6" t="n">
         <v>169338595</v>
@@ -12901,19 +12956,19 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O92" s="1" t="n">
         <v>0</v>
@@ -12921,13 +12976,13 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>282</v>
@@ -12941,13 +12996,13 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>289</v>
@@ -12958,16 +13013,16 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F95" s="1" t="n">
         <v>182692485</v>
@@ -12978,10 +13033,10 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>302</v>
@@ -12992,22 +13047,22 @@
       <c r="O96" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P96" s="8" t="n">
+      <c r="P96" s="10" t="n">
         <v>20183499</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F97" s="6" t="n">
         <v>318890441</v>
@@ -13018,7 +13073,7 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>17</v>
@@ -13035,31 +13090,31 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>258169025</v>
       </c>
-      <c r="H99" s="9"/>
+      <c r="H99" s="11"/>
       <c r="O99" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>17</v>
@@ -13071,7 +13126,7 @@
         <v>20</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F100" s="1" t="n">
         <v>258169026</v>
@@ -13079,26 +13134,26 @@
       <c r="G100" s="1" t="n">
         <v>258169025</v>
       </c>
-      <c r="H100" s="9"/>
+      <c r="H100" s="11"/>
       <c r="O100" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F101" s="4" t="n">
         <v>169875162</v>
@@ -13115,7 +13170,7 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>17</v>
@@ -13127,7 +13182,7 @@
         <v>34</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O102" s="1" t="n">
         <v>0</v>
@@ -13135,19 +13190,19 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F103" s="2" t="n">
         <v>169998374</v>
@@ -13166,13 +13221,13 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>324</v>
@@ -13183,7 +13238,7 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>17</v>
@@ -13192,7 +13247,7 @@
         <v>68</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F105" s="6" t="n">
         <v>169876682</v>
@@ -13203,7 +13258,7 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>17</v>
@@ -13212,7 +13267,7 @@
         <v>68</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O106" s="1" t="n">
         <v>0</v>
@@ -13220,16 +13275,16 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F107" s="1" t="n">
         <v>121431088</v>
@@ -13240,13 +13295,13 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>220</v>
@@ -13260,19 +13315,19 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O109" s="1" t="n">
         <v>0</v>
@@ -13280,13 +13335,13 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>222</v>
@@ -13297,7 +13352,7 @@
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>345</v>
@@ -13306,7 +13361,7 @@
         <v>25</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F111" s="1" t="n">
         <v>121445137</v>
@@ -13323,13 +13378,13 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>237</v>
@@ -13340,13 +13395,13 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>237</v>
@@ -13357,13 +13412,13 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>243</v>
@@ -13377,7 +13432,7 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>202</v>
@@ -13394,19 +13449,19 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F116" s="1" t="n">
         <v>169876683</v>
@@ -13423,19 +13478,19 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O117" s="1" t="n">
         <v>0</v>
@@ -13443,16 +13498,16 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F118" s="1" t="n">
         <v>169875161</v>
@@ -13463,7 +13518,7 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>286</v>
@@ -13472,7 +13527,7 @@
         <v>20</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F119" s="1" t="n">
         <v>318890143</v>
@@ -13489,19 +13544,19 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F120" s="1" t="n">
         <v>169875161</v>
@@ -13512,19 +13567,19 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F121" s="1" t="n">
         <v>169875161</v>
@@ -13535,13 +13590,13 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>338</v>
@@ -13555,16 +13610,16 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O123" s="1" t="n">
         <v>0</v>
@@ -13573,19 +13628,19 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F124" s="1"/>
       <c r="O124" s="1" t="n">
@@ -13595,13 +13650,13 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>259</v>
@@ -13615,13 +13670,13 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>274</v>
@@ -13632,19 +13687,19 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F127" s="1" t="n">
         <v>121454916</v>
@@ -13655,19 +13710,19 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O128" s="1" t="n">
         <v>0</v>
@@ -13675,30 +13730,30 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F129" s="9" t="n">
+        <v>597</v>
+      </c>
+      <c r="F129" s="11" t="n">
         <v>274259016</v>
       </c>
-      <c r="G129" s="9" t="n">
+      <c r="G129" s="11" t="n">
         <v>182736383</v>
       </c>
-      <c r="H129" s="10" t="n">
+      <c r="H129" s="12" t="n">
         <v>182765481</v>
       </c>
-      <c r="I129" s="9" t="n">
+      <c r="I129" s="11" t="n">
         <v>182692489</v>
       </c>
       <c r="J129" s="1"/>
@@ -13712,19 +13767,19 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F130" s="2" t="n">
         <v>274259016</v>
@@ -13749,16 +13804,16 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F131" s="6" t="n">
         <v>182736378</v>
@@ -13769,7 +13824,7 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>259</v>
@@ -13778,7 +13833,7 @@
         <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O132" s="1" t="n">
         <v>0</v>
@@ -13786,7 +13841,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>282</v>
@@ -13803,13 +13858,13 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O134" s="1" t="n">
         <v>0</v>
@@ -13817,13 +13872,13 @@
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O135" s="1" t="n">
         <v>0</v>
@@ -13831,13 +13886,13 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>349</v>
@@ -13851,19 +13906,19 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O137" s="1" t="n">
         <v>0</v>
@@ -13871,13 +13926,13 @@
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>345</v>
@@ -13891,13 +13946,13 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>385</v>
@@ -13908,13 +13963,13 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O140" s="1" t="n">
         <v>0</v>
@@ -13922,7 +13977,7 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>221</v>
@@ -13939,16 +13994,16 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O142" s="1" t="n">
         <v>0</v>
@@ -13956,7 +14011,7 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>327</v>
@@ -13965,7 +14020,7 @@
         <v>34</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O143" s="1" t="n">
         <v>0</v>
@@ -13973,10 +14028,10 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>314</v>
@@ -13987,7 +14042,7 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>349</v>
@@ -13996,7 +14051,7 @@
         <v>21</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O145" s="1" t="n">
         <v>0</v>
@@ -14004,13 +14059,13 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F146" s="6"/>
       <c r="O146" s="1" t="n">
@@ -14019,13 +14074,13 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O147" s="1" t="n">
         <v>0</v>
@@ -14033,13 +14088,13 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O148" s="1" t="n">
         <v>0</v>
@@ -14047,13 +14102,13 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O149" s="1" t="n">
         <v>0</v>
@@ -14061,13 +14116,13 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O150" s="1" t="n">
         <v>0</v>
@@ -14075,16 +14130,16 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O151" s="1" t="n">
         <v>0</v>
@@ -14092,13 +14147,13 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O152" s="1" t="n">
         <v>0</v>
@@ -14106,10 +14161,10 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>17</v>
@@ -14123,16 +14178,16 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O154" s="1" t="n">
         <v>0</v>
@@ -14140,7 +14195,7 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>198</v>
@@ -14154,10 +14209,10 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>17</v>
@@ -14171,16 +14226,16 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O157" s="1" t="n">
         <v>0</v>
@@ -14188,13 +14243,13 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O158" s="1" t="n">
         <v>0</v>
@@ -14202,16 +14257,16 @@
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O159" s="1" t="n">
         <v>0</v>
@@ -14219,16 +14274,16 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F160" s="1" t="n">
         <v>168851508</v>
@@ -14242,13 +14297,13 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F161" s="2" t="n">
         <v>110799766</v>
@@ -14259,7 +14314,7 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>61</v>
@@ -14268,7 +14323,7 @@
         <v>18</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F162" s="2" t="n">
         <v>274259014</v>
@@ -14279,13 +14334,13 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>61</v>
@@ -14299,7 +14354,7 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>384</v>
@@ -14308,7 +14363,7 @@
         <v>21</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O164" s="1" t="n">
         <v>0</v>
@@ -14316,13 +14371,13 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O165" s="1" t="n">
         <v>0</v>
@@ -14330,16 +14385,16 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O166" s="1" t="n">
         <v>0</v>
@@ -14347,13 +14402,13 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O167" s="1" t="n">
         <v>0</v>
@@ -14361,13 +14416,13 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O168" s="1" t="n">
         <v>0</v>
@@ -14375,7 +14430,7 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>238</v>
@@ -14389,7 +14444,7 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>248</v>
@@ -14403,7 +14458,7 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>267</v>
@@ -14417,16 +14472,16 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O172" s="1" t="n">
         <v>0</v>
@@ -14434,16 +14489,16 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="O173" s="1" t="n">
         <v>0</v>
@@ -14451,7 +14506,7 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>315</v>
@@ -14465,7 +14520,7 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>322</v>
@@ -14479,10 +14534,10 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>248</v>
@@ -14491,52 +14546,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="O177" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F178" s="2" t="n">
         <v>168822563</v>
       </c>
+      <c r="G178" s="13" t="n">
+        <v>247820689</v>
+      </c>
       <c r="O178" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="E179" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O179" s="1" t="n">
         <v>0</v>
@@ -14544,22 +14602,22 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>674</v>
+        <v>390</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>675</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O180" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>676</v>
       </c>
@@ -14578,7 +14636,7 @@
         <v>678</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>679</v>
@@ -14592,7 +14650,7 @@
         <v>680</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>252</v>
@@ -14620,7 +14678,7 @@
         <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>684</v>
@@ -14749,7 +14807,7 @@
         <v>684</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O194" s="1" t="n">
         <v>0</v>
@@ -14791,7 +14849,7 @@
         <v>679</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O197" s="1" t="n">
         <v>0</v>
@@ -14884,10 +14942,10 @@
         <v>708</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O203" s="1" t="n">
         <v>0</v>
@@ -14905,6 +14963,11 @@
       </c>
       <c r="O204" s="1" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F205" s="8" t="n">
+        <v>231511135</v>
       </c>
     </row>
   </sheetData>
@@ -14952,7 +15015,7 @@
       <c r="B2" s="4" t="n">
         <v>3268727324</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
       <c r="F2" s="1" t="n">
         <v>0.98</v>
       </c>
@@ -14964,7 +15027,7 @@
       <c r="B3" s="4" t="n">
         <v>3268727325</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="15"/>
       <c r="F3" s="1" t="n">
         <v>0.98</v>
       </c>
@@ -14976,7 +15039,7 @@
       <c r="B4" s="4" t="n">
         <v>3268727326</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -14985,7 +15048,7 @@
       <c r="B5" s="2" t="n">
         <v>3268785508</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -14994,7 +15057,7 @@
       <c r="B6" s="1" t="n">
         <v>3268785509</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -15003,7 +15066,7 @@
       <c r="B7" s="2" t="n">
         <v>3268785510</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -15012,7 +15075,7 @@
       <c r="B8" s="4" t="n">
         <v>3278050197</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="14"/>
       <c r="F8" s="1" t="n">
         <v>1.01</v>
       </c>
@@ -15024,7 +15087,7 @@
       <c r="B9" s="4" t="n">
         <v>3278103969</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="15"/>
       <c r="F9" s="1" t="n">
         <v>0.99</v>
       </c>
@@ -15036,7 +15099,7 @@
       <c r="B10" s="4" t="n">
         <v>3278103970</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -15045,7 +15108,7 @@
       <c r="B11" s="4" t="n">
         <v>3278103971</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -15054,7 +15117,7 @@
       <c r="B12" s="4" t="n">
         <v>3278120705</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -15063,7 +15126,7 @@
       <c r="B13" s="4" t="n">
         <v>3278238997</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="15"/>
       <c r="F13" s="1" t="n">
         <v>0.965</v>
       </c>
@@ -15075,7 +15138,7 @@
       <c r="B14" s="4" t="n">
         <v>3280211164</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -15084,7 +15147,7 @@
       <c r="B15" s="4" t="n">
         <v>3280249876</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -15093,7 +15156,7 @@
       <c r="B16" s="4" t="n">
         <v>3280249877</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -15102,7 +15165,7 @@
       <c r="B17" s="4" t="n">
         <v>3280276034</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -15111,7 +15174,7 @@
       <c r="B18" s="4" t="n">
         <v>3280276035</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -15123,7 +15186,7 @@
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -15132,7 +15195,7 @@
       <c r="B20" s="4" t="n">
         <v>3280276037</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -15141,7 +15204,7 @@
       <c r="B21" s="4" t="n">
         <v>3280276038</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -15150,7 +15213,7 @@
       <c r="B22" s="4" t="n">
         <v>3280276039</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -15448,7 +15511,7 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -16758,8 +16821,8 @@
   </sheetPr>
   <dimension ref="A1:B1654"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A744" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B759" activeCellId="0" sqref="B759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -17683,7 +17746,7 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1063</v>
@@ -17691,7 +17754,7 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1063</v>
@@ -17699,7 +17762,7 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1064</v>
@@ -17707,7 +17770,7 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1063</v>
@@ -17755,7 +17818,7 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1063</v>
@@ -17771,7 +17834,7 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1063</v>
@@ -17779,7 +17842,7 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1063</v>
@@ -17787,7 +17850,7 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1063</v>
@@ -17795,7 +17858,7 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>1063</v>
@@ -17803,7 +17866,7 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>1063</v>
@@ -17811,7 +17874,7 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>1063</v>
@@ -17819,7 +17882,7 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>1063</v>
@@ -17827,7 +17890,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1063</v>
@@ -17835,7 +17898,7 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>1063</v>
@@ -17843,7 +17906,7 @@
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>1040</v>
@@ -17851,7 +17914,7 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>1040</v>
@@ -17859,7 +17922,7 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>1063</v>
@@ -17867,7 +17930,7 @@
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>1073</v>
@@ -17883,7 +17946,7 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>1063</v>
@@ -17891,7 +17954,7 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>1063</v>
@@ -17899,7 +17962,7 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>1063</v>
@@ -17907,7 +17970,7 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>1063</v>
@@ -17915,7 +17978,7 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>1063</v>
@@ -17923,7 +17986,7 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>1063</v>
@@ -17931,7 +17994,7 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>1063</v>
@@ -17939,7 +18002,7 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>1050</v>
@@ -17947,7 +18010,7 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>1063</v>
@@ -17955,7 +18018,7 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>1063</v>
@@ -17963,7 +18026,7 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>1063</v>
@@ -17971,7 +18034,7 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>1063</v>
@@ -17979,7 +18042,7 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>1063</v>
@@ -17987,7 +18050,7 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>1063</v>
@@ -17995,7 +18058,7 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>1063</v>
@@ -18003,7 +18066,7 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>1063</v>
@@ -18011,7 +18074,7 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>1063</v>
@@ -18019,7 +18082,7 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>1063</v>
@@ -18027,7 +18090,7 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>1063</v>
@@ -18035,7 +18098,7 @@
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>1063</v>
@@ -18043,7 +18106,7 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>1063</v>
@@ -18051,7 +18114,7 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>1063</v>
@@ -18059,7 +18122,7 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>1063</v>
@@ -18067,7 +18130,7 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1063</v>
@@ -18075,7 +18138,7 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>1063</v>
@@ -18083,7 +18146,7 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>1058</v>
@@ -18091,7 +18154,7 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1063</v>
@@ -18123,7 +18186,7 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1079</v>
@@ -18131,7 +18194,7 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1079</v>
@@ -18139,7 +18202,7 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>1063</v>
@@ -18147,7 +18210,7 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>1063</v>
@@ -18155,7 +18218,7 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>1063</v>
@@ -18163,7 +18226,7 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1063</v>
@@ -18171,7 +18234,7 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1063</v>
@@ -18195,7 +18258,7 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>1063</v>
@@ -18203,7 +18266,7 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>1063</v>
@@ -18211,7 +18274,7 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>1063</v>
@@ -18219,7 +18282,7 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>1063</v>
@@ -18227,7 +18290,7 @@
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>1063</v>
@@ -18235,7 +18298,7 @@
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1063</v>
@@ -18243,7 +18306,7 @@
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>1063</v>
@@ -18251,7 +18314,7 @@
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1063</v>
@@ -18259,7 +18322,7 @@
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>1063</v>
@@ -18267,7 +18330,7 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>1063</v>
@@ -18275,7 +18338,7 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>1063</v>
@@ -18283,7 +18346,7 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>1063</v>
@@ -18291,7 +18354,7 @@
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>1063</v>
@@ -18299,7 +18362,7 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>1063</v>
@@ -18307,7 +18370,7 @@
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>1063</v>
@@ -18315,7 +18378,7 @@
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>1063</v>
@@ -18323,7 +18386,7 @@
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>1063</v>
@@ -18331,7 +18394,7 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>1063</v>
@@ -18339,7 +18402,7 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>1063</v>
@@ -18363,7 +18426,7 @@
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>1063</v>
@@ -18371,7 +18434,7 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>1063</v>
@@ -18379,7 +18442,7 @@
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>1087</v>
@@ -18387,7 +18450,7 @@
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>1087</v>
@@ -18395,7 +18458,7 @@
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>1063</v>
@@ -18403,7 +18466,7 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>1063</v>
@@ -18411,7 +18474,7 @@
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>1063</v>
@@ -18419,7 +18482,7 @@
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>1063</v>
@@ -18427,7 +18490,7 @@
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>1063</v>
@@ -18435,7 +18498,7 @@
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>1063</v>
@@ -18443,7 +18506,7 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>1063</v>
@@ -18451,7 +18514,7 @@
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>1063</v>
@@ -18459,7 +18522,7 @@
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>1063</v>
@@ -18467,7 +18530,7 @@
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>1063</v>
@@ -18475,7 +18538,7 @@
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>1063</v>
@@ -18483,7 +18546,7 @@
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>1063</v>
@@ -18491,7 +18554,7 @@
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>1063</v>
@@ -18499,7 +18562,7 @@
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>1088</v>
@@ -18507,7 +18570,7 @@
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>1063</v>
@@ -18523,7 +18586,7 @@
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>1063</v>
@@ -18531,7 +18594,7 @@
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>1063</v>
@@ -18539,7 +18602,7 @@
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>1063</v>
@@ -18547,7 +18610,7 @@
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>1063</v>
@@ -18555,7 +18618,7 @@
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>1063</v>
@@ -18563,7 +18626,7 @@
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>1063</v>
@@ -18571,7 +18634,7 @@
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>1063</v>
@@ -18579,7 +18642,7 @@
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>1063</v>
@@ -18587,7 +18650,7 @@
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>1063</v>
@@ -18595,7 +18658,7 @@
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>1063</v>
@@ -18603,7 +18666,7 @@
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>1063</v>
@@ -18611,7 +18674,7 @@
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1063</v>
@@ -18619,7 +18682,7 @@
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>1063</v>
@@ -18627,7 +18690,7 @@
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1063</v>
@@ -18635,7 +18698,7 @@
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1063</v>
@@ -18643,7 +18706,7 @@
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>1063</v>
@@ -18651,7 +18714,7 @@
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>1063</v>
@@ -18667,7 +18730,7 @@
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>1090</v>
@@ -18675,7 +18738,7 @@
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>1063</v>
@@ -18683,7 +18746,7 @@
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>1063</v>
@@ -18691,7 +18754,7 @@
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>1090</v>
@@ -18699,7 +18762,7 @@
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1091</v>
@@ -18715,7 +18778,7 @@
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>1063</v>
@@ -18723,7 +18786,7 @@
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>1063</v>
@@ -18731,7 +18794,7 @@
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>1063</v>
@@ -18739,7 +18802,7 @@
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>1063</v>
@@ -18747,7 +18810,7 @@
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>1063</v>
@@ -18755,7 +18818,7 @@
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>1063</v>
@@ -18763,7 +18826,7 @@
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>1063</v>
@@ -18771,7 +18834,7 @@
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>1063</v>
@@ -18779,7 +18842,7 @@
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>1063</v>
@@ -18787,7 +18850,7 @@
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>1063</v>
@@ -18795,7 +18858,7 @@
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>1063</v>
@@ -18803,7 +18866,7 @@
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>1063</v>
@@ -18811,7 +18874,7 @@
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>1063</v>
@@ -18819,7 +18882,7 @@
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>1063</v>
@@ -18827,7 +18890,7 @@
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>1063</v>
@@ -18843,7 +18906,7 @@
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>1093</v>
@@ -20603,7 +20666,7 @@
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>1106</v>
@@ -20611,7 +20674,7 @@
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>1106</v>
@@ -20691,7 +20754,7 @@
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>1105</v>
@@ -20699,7 +20762,7 @@
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>1105</v>
@@ -20795,7 +20858,7 @@
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>1114</v>
@@ -20803,7 +20866,7 @@
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>1114</v>
@@ -20843,7 +20906,7 @@
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>1157</v>
@@ -20851,7 +20914,7 @@
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>1158</v>
@@ -20931,7 +20994,7 @@
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>1101</v>
@@ -20939,7 +21002,7 @@
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>1101</v>
@@ -20947,7 +21010,7 @@
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>1064</v>
@@ -20955,7 +21018,7 @@
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>1064</v>
@@ -20963,7 +21026,7 @@
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>1064</v>
@@ -21107,7 +21170,7 @@
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>1064</v>
@@ -21275,7 +21338,7 @@
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>1044</v>
@@ -21755,7 +21818,7 @@
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>1045</v>
@@ -21763,7 +21826,7 @@
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>1045</v>
@@ -21835,7 +21898,7 @@
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>1043</v>
@@ -21843,7 +21906,7 @@
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>1043</v>
@@ -21867,7 +21930,7 @@
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>1193</v>
@@ -22051,7 +22114,7 @@
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>1108</v>
@@ -22123,7 +22186,7 @@
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>1046</v>
@@ -22131,7 +22194,7 @@
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>1046</v>
@@ -22139,7 +22202,7 @@
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>1184</v>
@@ -22147,7 +22210,7 @@
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>1184</v>
@@ -22219,7 +22282,7 @@
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>1117</v>
@@ -22227,7 +22290,7 @@
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>1117</v>
@@ -22251,7 +22314,7 @@
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>1051</v>
@@ -22763,7 +22826,7 @@
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>1211</v>
@@ -22787,7 +22850,7 @@
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>1212</v>
@@ -22811,7 +22874,7 @@
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>1193</v>
@@ -22835,7 +22898,7 @@
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
-        <v>674</v>
+        <v>390</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>1109</v>
@@ -22891,7 +22954,7 @@
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>1182</v>
@@ -22899,7 +22962,7 @@
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>1182</v>
@@ -29387,7 +29450,7 @@
     </row>
     <row r="1578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1578" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B1578" s="1" t="s">
         <v>1402</v>
@@ -29395,7 +29458,7 @@
     </row>
     <row r="1579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1579" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B1579" s="1" t="s">
         <v>1403</v>
@@ -29411,7 +29474,7 @@
     </row>
     <row r="1581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1581" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B1581" s="1" t="s">
         <v>1404</v>
@@ -29419,7 +29482,7 @@
     </row>
     <row r="1582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1582" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B1582" s="1" t="s">
         <v>1405</v>
@@ -29427,7 +29490,7 @@
     </row>
     <row r="1583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1583" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B1583" s="1" t="s">
         <v>1406</v>
@@ -29435,7 +29498,7 @@
     </row>
     <row r="1584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1584" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B1584" s="1" t="s">
         <v>1407</v>
@@ -29443,7 +29506,7 @@
     </row>
     <row r="1585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1585" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B1585" s="1" t="s">
         <v>1408</v>
@@ -29451,7 +29514,7 @@
     </row>
     <row r="1586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1586" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B1586" s="1" t="s">
         <v>1409</v>
@@ -29459,7 +29522,7 @@
     </row>
     <row r="1587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1587" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B1587" s="1" t="s">
         <v>1410</v>
@@ -29475,7 +29538,7 @@
     </row>
     <row r="1589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1589" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B1589" s="1" t="s">
         <v>1412</v>
@@ -29483,7 +29546,7 @@
     </row>
     <row r="1590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1590" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B1590" s="1" t="s">
         <v>1413</v>
@@ -29491,7 +29554,7 @@
     </row>
     <row r="1591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1591" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B1591" s="1" t="s">
         <v>1414</v>
@@ -29499,7 +29562,7 @@
     </row>
     <row r="1592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1592" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B1592" s="1" t="s">
         <v>1415</v>
@@ -29507,7 +29570,7 @@
     </row>
     <row r="1593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1593" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B1593" s="1" t="s">
         <v>1193</v>
@@ -29515,7 +29578,7 @@
     </row>
     <row r="1594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1594" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>1404</v>
@@ -29523,7 +29586,7 @@
     </row>
     <row r="1595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1595" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B1595" s="1" t="s">
         <v>1405</v>
@@ -29531,7 +29594,7 @@
     </row>
     <row r="1596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1596" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B1596" s="1" t="s">
         <v>1416</v>
@@ -29547,7 +29610,7 @@
     </row>
     <row r="1598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1598" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B1598" s="1" t="s">
         <v>1417</v>
@@ -29555,7 +29618,7 @@
     </row>
     <row r="1599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1599" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B1599" s="1" t="s">
         <v>1418</v>
@@ -29563,7 +29626,7 @@
     </row>
     <row r="1600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1600" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B1600" s="1" t="s">
         <v>1409</v>
@@ -29571,7 +29634,7 @@
     </row>
     <row r="1601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1601" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B1601" s="1" t="s">
         <v>1419</v>
@@ -29579,7 +29642,7 @@
     </row>
     <row r="1602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1602" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B1602" s="1" t="s">
         <v>1419</v>
@@ -29587,7 +29650,7 @@
     </row>
     <row r="1603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1603" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B1603" s="1" t="s">
         <v>1420</v>
@@ -29635,7 +29698,7 @@
     </row>
     <row r="1609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1609" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B1609" s="1" t="s">
         <v>1410</v>
@@ -29907,7 +29970,7 @@
     </row>
     <row r="1643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1643" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B1643" s="1" t="s">
         <v>1186</v>
@@ -29915,7 +29978,7 @@
     </row>
     <row r="1644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1644" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B1644" s="1" t="s">
         <v>1186</v>
@@ -29923,7 +29986,7 @@
     </row>
     <row r="1645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1645" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B1645" s="1" t="s">
         <v>1052</v>
@@ -30042,7 +30105,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1426</v>
@@ -30071,7 +30134,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1427</v>
@@ -30100,7 +30163,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1427</v>
@@ -30129,7 +30192,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1427</v>
@@ -30158,7 +30221,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1427</v>
@@ -30187,7 +30250,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1435</v>
@@ -30216,7 +30279,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1435</v>
@@ -30245,7 +30308,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1427</v>
@@ -30274,7 +30337,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1427</v>
@@ -30303,7 +30366,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1436</v>
@@ -30332,7 +30395,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1427</v>
@@ -30361,7 +30424,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1437</v>
@@ -30390,7 +30453,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1437</v>
@@ -30419,7 +30482,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1427</v>
@@ -30448,7 +30511,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1427</v>
@@ -30477,7 +30540,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1427</v>
@@ -30506,7 +30569,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1438</v>
@@ -30535,7 +30598,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1438</v>
@@ -30564,7 +30627,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1427</v>
@@ -30593,7 +30656,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1427</v>
@@ -30622,7 +30685,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1439</v>
@@ -30651,7 +30714,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1439</v>
@@ -30680,7 +30743,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1427</v>
@@ -30709,7 +30772,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1427</v>
@@ -30738,7 +30801,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1427</v>
@@ -30767,7 +30830,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1427</v>
@@ -30796,7 +30859,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1427</v>
@@ -30825,7 +30888,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1427</v>
@@ -30854,7 +30917,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1427</v>
@@ -30912,7 +30975,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1440</v>
@@ -30970,7 +31033,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1441</v>
@@ -30999,7 +31062,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1441</v>
@@ -31144,7 +31207,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1442</v>
@@ -31173,7 +31236,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1442</v>
@@ -31347,7 +31410,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1443</v>
@@ -31376,7 +31439,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1443</v>
@@ -31434,7 +31497,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1444</v>
@@ -31463,7 +31526,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1444</v>
@@ -31492,7 +31555,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1426</v>
@@ -31521,7 +31584,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1426</v>
@@ -31550,7 +31613,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1426</v>
@@ -31695,7 +31758,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1426</v>
@@ -31927,7 +31990,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1445</v>
@@ -32072,7 +32135,7 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1446</v>
@@ -32101,7 +32164,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1446</v>
@@ -32217,7 +32280,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1447</v>
@@ -32246,7 +32309,7 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1447</v>
@@ -32275,7 +32338,7 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1448</v>
@@ -32507,7 +32570,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>1449</v>
@@ -32594,7 +32657,7 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1450</v>
@@ -32623,7 +32686,7 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1450</v>
@@ -32652,7 +32715,7 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1451</v>
@@ -32681,7 +32744,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>1451</v>
@@ -32710,7 +32773,7 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1452</v>
@@ -32739,7 +32802,7 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1452</v>
@@ -32942,7 +33005,7 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1453</v>
@@ -33029,7 +33092,7 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>1448</v>
@@ -33087,7 +33150,7 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>674</v>
+        <v>390</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1454</v>
@@ -33116,7 +33179,7 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1455</v>
@@ -33145,7 +33208,7 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1455</v>
@@ -33319,7 +33382,7 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1456</v>
@@ -33348,7 +33411,7 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1457</v>
@@ -33377,7 +33440,7 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1458</v>
@@ -33406,7 +33469,7 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1459</v>
@@ -33435,7 +33498,7 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1460</v>
@@ -33464,7 +33527,7 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1461</v>
@@ -33493,7 +33556,7 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1462</v>
@@ -33522,7 +33585,7 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1463</v>
@@ -33551,7 +33614,7 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1464</v>
@@ -33580,7 +33643,7 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1465</v>
@@ -33609,7 +33672,7 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1466</v>
@@ -33638,7 +33701,7 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1458</v>
@@ -33667,7 +33730,7 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1459</v>
@@ -33696,7 +33759,7 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1467</v>
@@ -33725,7 +33788,7 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>1468</v>
@@ -33754,7 +33817,7 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>1469</v>
@@ -33783,7 +33846,7 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>1461</v>
@@ -33812,7 +33875,7 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>1470</v>
@@ -33841,7 +33904,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1470</v>
@@ -33870,7 +33933,7 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>1471</v>
@@ -35615,7 +35678,7 @@
       <c r="L39" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="M39" s="14" t="n">
+      <c r="M39" s="17" t="n">
         <v>42183</v>
       </c>
     </row>
@@ -35653,7 +35716,7 @@
       <c r="L40" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="M40" s="14" t="n">
+      <c r="M40" s="17" t="n">
         <v>42160</v>
       </c>
       <c r="P40" s="1" t="n">
@@ -35694,7 +35757,7 @@
       <c r="L41" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="M41" s="14" t="n">
+      <c r="M41" s="17" t="n">
         <v>42160</v>
       </c>
     </row>
@@ -35732,7 +35795,7 @@
       <c r="L42" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="M42" s="14" t="n">
+      <c r="M42" s="17" t="n">
         <v>42077</v>
       </c>
     </row>
@@ -35767,7 +35830,7 @@
       <c r="L43" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="M43" s="14" t="n">
+      <c r="M43" s="17" t="n">
         <v>42045</v>
       </c>
     </row>
@@ -39850,7 +39913,7 @@
       <c r="G169" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="H169" s="14" t="n">
+      <c r="H169" s="17" t="n">
         <v>111521</v>
       </c>
       <c r="I169" s="1" t="s">
@@ -40010,7 +40073,7 @@
       <c r="G174" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="H174" s="14" t="n">
+      <c r="H174" s="17" t="n">
         <v>1595412</v>
       </c>
       <c r="I174" s="1" t="s">
